--- a/WISOL.UI/DAILY_ACTUAL_PRODUCT_SMT.xlsx
+++ b/WISOL.UI/DAILY_ACTUAL_PRODUCT_SMT.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -47,7 +47,7 @@
     <t>D3L0</t>
   </si>
   <si>
-    <t>Lot Number</t>
+    <t>Lot No</t>
   </si>
 </sst>
 </file>
@@ -469,59 +469,59 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="B2" s="3">
         <v>44621</v>
       </c>
-      <c r="B2" s="8">
+      <c r="C2" s="8">
         <v>150696</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10">
         <v>10</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <conditionalFormatting sqref="A3:A1048576">
+  <autoFilter ref="B1:F1"/>
+  <conditionalFormatting sqref="B3:B1048576">
     <cfRule type="cellIs" dxfId="3" priority="379" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
@@ -529,7 +529,7 @@
       <formula>"A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
+  <conditionalFormatting sqref="B2">
     <cfRule type="cellIs" dxfId="1" priority="357" stopIfTrue="1" operator="equal">
       <formula>"B"</formula>
     </cfRule>
